--- a/data/TC003.xlsx
+++ b/data/TC003.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>UserName</t>
   </si>
@@ -24,18 +24,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>DemoSalesManager</t>
-  </si>
-  <si>
-    <t>crmsfa</t>
-  </si>
-  <si>
-    <t>DemoCSR</t>
-  </si>
-  <si>
-    <t>CompanyName</t>
-  </si>
-  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -45,29 +33,49 @@
     <t>TestLeaf1</t>
   </si>
   <si>
-    <t>Sun1</t>
-  </si>
-  <si>
     <t>Prasanth1</t>
   </si>
   <si>
-    <t>TestLeaf2</t>
-  </si>
-  <si>
-    <t>Raksha</t>
-  </si>
-  <si>
-    <t>Priya</t>
+    <t>prasanth.sundaresan@landsend.com.qa</t>
+  </si>
+  <si>
+    <t>AddressLine1</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
+  </si>
+  <si>
+    <t>PO 13 BOX</t>
+  </si>
+  <si>
+    <t>May@2018</t>
+  </si>
+  <si>
+    <t>PhoneNo</t>
+  </si>
+  <si>
+    <t>9994806686</t>
+  </si>
+  <si>
+    <t>80</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,7 +95,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -110,17 +118,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -420,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +457,7 @@
     <col min="4" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,51 +465,51 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
